--- a/hardware/winch-link/winch-link-top-pos.xlsx
+++ b/hardware/winch-link/winch-link-top-pos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpetri/Documents/web/winch-link/hardware/winch-link/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E10D2DBC-FFA8-F643-9375-00D84DEE97E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ADE8E5-E7DB-7045-869A-7F9912C8BF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="4560" windowWidth="27440" windowHeight="16240" xr2:uid="{2B77F219-A985-D840-BE97-C0C69D380767}"/>
+    <workbookView xWindow="7380" yWindow="2240" windowWidth="27440" windowHeight="16240" xr2:uid="{2B77F219-A985-D840-BE97-C0C69D380767}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
